--- a/02_Proyecto/07.InformeGeneral/Cuadernos/06_Resumen_Plan_Proyecto.xlsx
+++ b/02_Proyecto/07.InformeGeneral/Cuadernos/06_Resumen_Plan_Proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Plantillas Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ordenador\Documents\GitHub\2563_G5_ACSW\02_Proyecto\07.InformeGeneral\Cuadernos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20879465-F0BA-4BD1-9BF2-FF17E27BE3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C743159-F358-4243-A61C-019BD07E7D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="6" xr2:uid="{4A5921DE-74FD-453F-A450-9A213226377B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{4A5921DE-74FD-453F-A450-9A213226377B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla 6,1" sheetId="15" r:id="rId1"/>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="233">
   <si>
     <t xml:space="preserve">Numero de Programas </t>
   </si>
@@ -488,9 +486,6 @@
   </si>
   <si>
     <t>Profesor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ing. Diego Gamboa</t>
   </si>
   <si>
     <t>Fecha:</t>
@@ -937,8 +932,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="175" formatCode="0.0000"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1219,7 +1214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1327,60 +1322,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1469,20 +1410,77 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1821,77 +1819,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66054031-78D7-44C9-A2CB-83335615C3AF}">
   <dimension ref="B3:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="4" max="5" width="14.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="2:7" ht="15.6">
-      <c r="B4" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="2:7" ht="14.4" customHeight="1">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="78" t="s">
         <v>139</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="40" t="s">
+      <c r="E5" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="47" t="s">
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="78"/>
+      <c r="C6" s="14" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="40"/>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="80"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="85"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="78"/>
+      <c r="C7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="40"/>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="81"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="G7" s="5">
         <v>2563</v>
@@ -1899,27 +1897,27 @@
     </row>
     <row r="10" spans="2:7" ht="28.2" customHeight="1">
       <c r="B10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="20.399999999999999" customHeight="1"/>
     <row r="12" spans="2:7" ht="30.6" customHeight="1">
       <c r="C12" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="E12" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="F12" s="31" t="s">
         <v>193</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="22.2" customHeight="1">
       <c r="C13" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" s="6">
         <v>68</v>
@@ -2028,26 +2026,26 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="28.8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="27.6">
       <c r="C23" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="E23" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="F23" s="33" t="s">
         <v>193</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="21" customHeight="1">
       <c r="C24" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D24" s="6">
         <v>62</v>
@@ -2156,26 +2154,26 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="28.8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="27.6">
       <c r="C34" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="E34" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="F34" s="35" t="s">
         <v>193</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="18.600000000000001" customHeight="1">
       <c r="C35" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35" s="6">
         <v>63</v>
@@ -2301,15 +2299,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C2E558-125E-455C-96BB-7C6F6B47C988}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="14.5546875" customWidth="1"/>
+    <col min="4" max="5" width="14.59765625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2319,64 +2317,64 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="1:7" ht="15.6">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="78" t="s">
         <v>139</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="G5" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="47" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="78"/>
+      <c r="C6" s="14" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="40"/>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="80"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="85"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="78"/>
+      <c r="C7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="40"/>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="81"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="G7" s="5">
         <v>2563</v>
@@ -2949,7 +2947,7 @@
         <v>2102</v>
       </c>
       <c r="F47" s="23">
-        <f t="shared" si="0"/>
+        <f>D47/E47</f>
         <v>2.0670789724072312</v>
       </c>
     </row>
@@ -2957,17 +2955,17 @@
       <c r="C48" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="2">
-        <f>D47/2</f>
-        <v>2172.5</v>
-      </c>
-      <c r="E48" s="2">
-        <f>E47/2</f>
-        <v>1051</v>
+      <c r="D48" s="94">
+        <f>D47/C46</f>
+        <v>120.69444444444444</v>
+      </c>
+      <c r="E48" s="4">
+        <f>E47/C46</f>
+        <v>58.388888888888886</v>
       </c>
       <c r="F48" s="4">
-        <f>F47/2</f>
-        <v>1.0335394862036156</v>
+        <f>D48/E48</f>
+        <v>2.0670789724072312</v>
       </c>
     </row>
   </sheetData>
@@ -2989,76 +2987,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9BD9E6-5CEE-4381-950C-DA82135D189C}">
   <dimension ref="B2:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F46"/>
+    <sheetView topLeftCell="A11" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="12" customWidth="1"/>
+    <col min="2" max="5" width="16.296875" customWidth="1"/>
+    <col min="6" max="6" width="30.69921875" style="12" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="2:7" ht="15.6">
-      <c r="B3" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="78" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="G4" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="47" t="s">
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="78"/>
+      <c r="C5" s="14" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="40"/>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="80"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="85"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="78"/>
+      <c r="C6" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="40"/>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="81"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="24" t="s">
         <v>146</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="24" t="s">
-        <v>147</v>
       </c>
       <c r="G6" s="5">
         <v>2563</v>
@@ -3066,7 +3064,7 @@
     </row>
     <row r="8" spans="2:7" ht="20.399999999999999" customHeight="1">
       <c r="B8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="8" customFormat="1" ht="16.2" customHeight="1">
@@ -3713,7 +3711,7 @@
         <v>1.2972972972972974</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="2:6" s="8" customFormat="1" ht="16.2" customHeight="1">
@@ -3755,7 +3753,7 @@
         <v>1.2820512820512822</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="2:6" s="8" customFormat="1" ht="16.2" customHeight="1">
@@ -3852,7 +3850,7 @@
         <f>SUM(D10:D45)</f>
         <v>2102</v>
       </c>
-      <c r="E46" s="56">
+      <c r="E46" s="38">
         <f t="shared" si="0"/>
         <v>2.0670789724072312</v>
       </c>
@@ -3878,78 +3876,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D56471-4063-45CC-AE6A-C1E1A38E30A8}">
   <dimension ref="B2:L74"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView topLeftCell="A13" zoomScale="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" customWidth="1"/>
-    <col min="6" max="8" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" customWidth="1"/>
+    <col min="4" max="4" width="24.296875" customWidth="1"/>
+    <col min="5" max="5" width="27.8984375" customWidth="1"/>
+    <col min="6" max="8" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="2:8" ht="15.6">
-      <c r="B3" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="B3" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="78" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="G4" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="47" t="s">
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="78"/>
+      <c r="C5" s="14" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="40"/>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="80"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="85"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="78"/>
+      <c r="C6" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="40"/>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="81"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="G6" s="5">
         <v>2563</v>
@@ -3999,7 +3997,7 @@
         <v>82</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>58</v>
@@ -4892,7 +4890,7 @@
     </row>
     <row r="48" spans="2:8" ht="28.2" customHeight="1">
       <c r="B48" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -4911,10 +4909,10 @@
         <v>74</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="0"/>
@@ -4939,7 +4937,7 @@
         <v>78</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>115</v>
@@ -5121,7 +5119,7 @@
     </row>
     <row r="58" spans="2:8" ht="28.2" customHeight="1">
       <c r="B58" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" s="5">
         <f>SUM(C11:C57)</f>
@@ -5144,33 +5142,33 @@
     </row>
     <row r="59" spans="2:8" ht="28.2" customHeight="1"/>
     <row r="60" spans="2:8" ht="14.4" customHeight="1">
-      <c r="E60" s="85" t="s">
-        <v>230</v>
-      </c>
-      <c r="F60" s="86">
+      <c r="E60" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="F60" s="68">
         <f>F58/60</f>
         <v>57.93333333333333</v>
       </c>
-      <c r="G60" s="86">
+      <c r="G60" s="68">
         <f t="shared" ref="G60:H60" si="2">G58/60</f>
         <v>72.416666666666671</v>
       </c>
-      <c r="H60" s="86">
+      <c r="H60" s="68">
         <f t="shared" si="2"/>
         <v>86.9</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="E61" s="8"/>
-      <c r="F61" s="86">
+      <c r="F61" s="68">
         <f>C58/F60</f>
         <v>36.283084004602991</v>
       </c>
-      <c r="G61" s="86">
+      <c r="G61" s="68">
         <f>C58/G60</f>
         <v>29.02646720368239</v>
       </c>
-      <c r="H61" s="86">
+      <c r="H61" s="68">
         <f>C58/H60</f>
         <v>24.188722669735327</v>
       </c>
@@ -5182,10 +5180,10 @@
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="E63" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="F63" s="86">
+      <c r="E63" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="F63" s="68">
         <f>H58/C58</f>
         <v>2.4804947668886776</v>
       </c>
@@ -5193,10 +5191,10 @@
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="E64" s="85" t="s">
-        <v>231</v>
-      </c>
-      <c r="F64" s="86">
+      <c r="E64" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="F64" s="68">
         <f>G58/C58</f>
         <v>2.0670789724072312</v>
       </c>
@@ -5204,69 +5202,69 @@
       <c r="H64" s="8"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
+      <c r="B68" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" s="87"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="87"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="87"/>
+      <c r="H69" s="87"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="87"/>
+      <c r="G70" s="87"/>
+      <c r="H70" s="87"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="87"/>
+      <c r="H72" s="87"/>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="87"/>
+      <c r="H73" s="87"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5288,77 +5286,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F010656-C806-4C2C-82C5-54BF16B80081}">
   <dimension ref="B2:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="2" max="4" width="20.09765625" customWidth="1"/>
+    <col min="5" max="5" width="27.19921875" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="2:10" ht="15.6">
-      <c r="B3" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="78" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>189</v>
+      <c r="E4" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="23.4" customHeight="1">
-      <c r="B5" s="40"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="85"/>
+    </row>
+    <row r="6" spans="2:10" ht="23.4" customHeight="1">
+      <c r="B6" s="78"/>
+      <c r="C6" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="2:10" ht="23.4" customHeight="1">
-      <c r="B6" s="40"/>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="81"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="G6" s="5">
         <v>2563</v>
@@ -5966,77 +5964,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C7CB2A-E93A-4CBB-974B-0ECB471C7048}">
   <dimension ref="B2:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G6"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="40.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="2" max="4" width="20.09765625" customWidth="1"/>
+    <col min="5" max="5" width="40.796875" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="3" spans="2:10" ht="15.6">
-      <c r="B3" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="78" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>188</v>
+      <c r="E4" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="23.4" customHeight="1">
-      <c r="B5" s="40"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="85"/>
+    </row>
+    <row r="6" spans="2:10" ht="23.4" customHeight="1">
+      <c r="B6" s="78"/>
+      <c r="C6" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="2:10" ht="23.4" customHeight="1">
-      <c r="B6" s="40"/>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="81"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="G6" s="5">
         <v>2563</v>
@@ -6069,7 +6067,7 @@
         <v>82</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -6091,7 +6089,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>4</v>
@@ -6117,7 +6115,7 @@
         <v>66</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="36" customHeight="1">
@@ -6133,7 +6131,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I13">
         <f>I11*216/1000</f>
@@ -6181,7 +6179,7 @@
         <v>36</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="36" customHeight="1">
@@ -6197,7 +6195,7 @@
         <v>72</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="36" customHeight="1">
@@ -6213,7 +6211,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="36" customHeight="1">
@@ -6229,7 +6227,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="36" customHeight="1">
@@ -6245,7 +6243,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="36" customHeight="1">
@@ -6261,7 +6259,7 @@
         <v>73</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="36" customHeight="1">
@@ -6277,7 +6275,7 @@
         <v>55</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="36" customHeight="1">
@@ -6307,7 +6305,7 @@
         <v>69</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="36" customHeight="1">
@@ -6323,7 +6321,7 @@
         <v>57</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="36" customHeight="1">
@@ -6339,7 +6337,7 @@
         <v>42</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="36" customHeight="1">
@@ -6355,7 +6353,7 @@
         <v>86</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="36" customHeight="1">
@@ -6385,7 +6383,7 @@
         <v>58</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="36" customHeight="1">
@@ -6401,7 +6399,7 @@
         <v>72</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="36" customHeight="1">
@@ -6417,7 +6415,7 @@
         <v>50</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="36" customHeight="1">
@@ -6433,7 +6431,7 @@
         <v>60</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="36" customHeight="1">
@@ -6449,7 +6447,7 @@
         <v>84</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="36" customHeight="1">
@@ -6465,7 +6463,7 @@
         <v>54</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="36" customHeight="1">
@@ -6481,7 +6479,7 @@
         <v>77</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="36" customHeight="1">
@@ -6511,7 +6509,7 @@
         <v>57</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="36" customHeight="1">
@@ -6569,7 +6567,7 @@
         <v>69</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="36" customHeight="1">
@@ -6585,7 +6583,7 @@
         <v>35</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="36" customHeight="1">
@@ -6601,7 +6599,7 @@
         <v>63</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="36" customHeight="1">
@@ -6617,7 +6615,7 @@
         <v>80</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="36" customHeight="1">
@@ -6633,7 +6631,7 @@
         <v>56</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="22.2" customHeight="1">
@@ -6687,11 +6685,11 @@
     </row>
     <row r="54" spans="3:6">
       <c r="C54" s="9"/>
-      <c r="D54" s="53" t="s">
-        <v>190</v>
-      </c>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
+      <c r="D54" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6714,98 +6712,98 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" customWidth="1"/>
+    <col min="3" max="4" width="20.09765625" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" customHeight="1">
+      <c r="B3" s="92" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1">
-      <c r="B3" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="15.6">
-      <c r="B4" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="78" t="s">
         <v>139</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>188</v>
+      <c r="E5" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23.4" customHeight="1">
-      <c r="B6" s="40"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="80"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="85"/>
+    </row>
+    <row r="7" spans="1:8" ht="23.4" customHeight="1">
+      <c r="B7" s="78"/>
+      <c r="C7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:8" ht="23.4" customHeight="1">
-      <c r="B7" s="40"/>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="81"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="G7" s="5">
         <v>2563</v>
@@ -6813,768 +6811,768 @@
     </row>
     <row r="8" spans="1:8" ht="23.4" customHeight="1"/>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="B9" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72" t="s">
+      <c r="B9" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="F9" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="F9" s="72" t="s">
-        <v>211</v>
-      </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="88"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="70"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
-      <c r="B10" s="60"/>
-      <c r="C10" s="66" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="43">
         <f>'Tabla 6,4'!F64</f>
         <v>2.0670789724072312</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="43">
         <f>'Tabla 6,4'!F63</f>
         <v>2.4804947668886776</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="43">
         <f>AVERAGE(E10,D10)</f>
         <v>2.2737868696479544</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="57"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1">
-      <c r="B11" s="60"/>
-      <c r="C11" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="61">
+      <c r="B11" s="42"/>
+      <c r="C11" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="43">
         <f>60/D10</f>
         <v>29.026467203682394</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="43">
         <f>60/E10</f>
         <v>24.188722669735327</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="43">
         <f t="shared" ref="F11:F12" si="0">AVERAGE(E11,D11)</f>
         <v>26.60759493670886</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="57"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
-      <c r="B12" s="60"/>
-      <c r="C12" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="62">
+      <c r="B12" s="42"/>
+      <c r="C12" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="44">
         <v>94.79</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="43">
         <f>1000*'Defectos Desarrollo 1_2'!C46/'Defectos Desarrollo 1_2'!D46</f>
         <v>145.57564224548048</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="43">
         <f t="shared" si="0"/>
         <v>120.18282112274025</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="57"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
-      <c r="B13" s="60"/>
-      <c r="C13" s="66" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1">
+      <c r="B14" s="42"/>
+      <c r="C14" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="57"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1">
-      <c r="B14" s="60"/>
-      <c r="C14" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="57"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="71"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1">
+      <c r="B16" s="40"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="2:8" ht="18" customHeight="1">
+      <c r="B17" s="42"/>
+      <c r="C17" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="89"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1">
-      <c r="B16" s="58"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="57"/>
-    </row>
-    <row r="17" spans="2:8" ht="18" customHeight="1">
-      <c r="B17" s="60"/>
-      <c r="C17" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" s="62">
+      <c r="D17" s="44">
         <f>'Defectos Desarrollo 1'!D46</f>
         <v>2318</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="44">
         <f>'Defectos Desarrollo 1_2'!D46</f>
         <v>2102</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="44">
         <f>AVERAGE(D17,E17)</f>
         <v>2210</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="57"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="2:8" ht="18" customHeight="1">
-      <c r="B18" s="60"/>
-      <c r="C18" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="62">
+      <c r="B18" s="42"/>
+      <c r="C18" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="44">
         <f>D17+(D17*0.1)</f>
         <v>2549.8000000000002</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="44">
         <f>E17+(E17*0.2)</f>
         <v>2522.4</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="44">
         <f t="shared" ref="F18:F19" si="1">AVERAGE(D18,E18)</f>
         <v>2536.1000000000004</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="57"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="2:8" ht="18" customHeight="1">
-      <c r="B19" s="60"/>
-      <c r="C19" s="66" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="62">
+      <c r="B19" s="42"/>
+      <c r="C19" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="44">
         <f>D17-(D17*0.1)</f>
         <v>2086.1999999999998</v>
       </c>
-      <c r="E19" s="62">
+      <c r="E19" s="44">
         <f>E17-(E17*0.2)</f>
         <v>1681.6</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="44">
         <f t="shared" si="1"/>
         <v>1883.8999999999999</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="57"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="2:8" ht="18" customHeight="1">
-      <c r="B20" s="63"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="57"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="2:8" ht="18" customHeight="1">
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="H21" s="72"/>
+    </row>
+    <row r="22" spans="2:8" ht="18" customHeight="1">
+      <c r="B22" s="40"/>
+      <c r="C22" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="G21" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="H21" s="90"/>
-    </row>
-    <row r="22" spans="2:8" ht="18" customHeight="1">
-      <c r="B22" s="58"/>
-      <c r="C22" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="62">
+      <c r="D22" s="44">
         <v>10</v>
       </c>
-      <c r="E22" s="62">
+      <c r="E22" s="44">
         <v>22</v>
       </c>
-      <c r="F22" s="62">
+      <c r="F22" s="44">
         <f>AVERAGE(D22,E22)</f>
         <v>16</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="43">
         <f>(F22/F29)*100</f>
         <v>5.4794520547945202</v>
       </c>
-      <c r="H22" s="57"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1">
-      <c r="B23" s="60"/>
-      <c r="C23" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" s="62">
+      <c r="B23" s="42"/>
+      <c r="C23" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="44">
         <v>35</v>
       </c>
-      <c r="E23" s="62">
+      <c r="E23" s="44">
         <v>24</v>
       </c>
-      <c r="F23" s="62">
+      <c r="F23" s="44">
         <f t="shared" ref="F23:F28" si="2">AVERAGE(D23,E23)</f>
         <v>29.5</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="43">
         <f>(F23/$F$29)*100</f>
         <v>10.102739726027398</v>
       </c>
-      <c r="H23" s="57"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="2:8" ht="18" customHeight="1">
-      <c r="B24" s="60"/>
-      <c r="C24" s="66" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="62">
+      <c r="B24" s="42"/>
+      <c r="C24" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="44">
         <v>149</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E24" s="44">
         <v>93</v>
       </c>
-      <c r="F24" s="62">
+      <c r="F24" s="44">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24" s="43">
         <f t="shared" ref="G24:G28" si="3">(F24/$F$29)*100</f>
         <v>41.438356164383563</v>
       </c>
-      <c r="H24" s="57"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="2:8" ht="18" customHeight="1">
-      <c r="B25" s="60"/>
-      <c r="C25" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" s="62">
+      <c r="B25" s="42"/>
+      <c r="C25" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="44">
         <v>20</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="44">
         <v>37</v>
       </c>
-      <c r="F25" s="62">
+      <c r="F25" s="44">
         <f t="shared" si="2"/>
         <v>28.5</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="43">
         <f t="shared" si="3"/>
         <v>9.7602739726027394</v>
       </c>
-      <c r="H25" s="57"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="2:8" ht="18" customHeight="1">
-      <c r="B26" s="60"/>
-      <c r="C26" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="62">
+      <c r="B26" s="42"/>
+      <c r="C26" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="44">
         <v>24</v>
       </c>
-      <c r="E26" s="62">
+      <c r="E26" s="44">
         <v>14</v>
       </c>
-      <c r="F26" s="62">
+      <c r="F26" s="44">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26" s="43">
         <f t="shared" si="3"/>
         <v>6.506849315068493</v>
       </c>
-      <c r="H26" s="57"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="2:8" ht="18" customHeight="1">
-      <c r="B27" s="60"/>
-      <c r="C27" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="D27" s="62">
+      <c r="B27" s="42"/>
+      <c r="C27" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="44">
         <v>64</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="44">
         <v>18</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="44">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27" s="43">
         <f t="shared" si="3"/>
         <v>14.04109589041096</v>
       </c>
-      <c r="H27" s="57"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="2:8" ht="18" customHeight="1">
-      <c r="B28" s="60"/>
-      <c r="C28" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="62">
+      <c r="B28" s="42"/>
+      <c r="C28" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="44">
         <v>33</v>
       </c>
-      <c r="E28" s="62">
+      <c r="E28" s="44">
         <v>41</v>
       </c>
-      <c r="F28" s="62">
+      <c r="F28" s="44">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="43">
         <f t="shared" si="3"/>
         <v>12.671232876712329</v>
       </c>
-      <c r="H28" s="57"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="2:8" ht="18" customHeight="1">
-      <c r="B29" s="60"/>
-      <c r="C29" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="D29" s="62">
+      <c r="B29" s="42"/>
+      <c r="C29" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="44">
         <f>SUM(D22:D28)</f>
         <v>335</v>
       </c>
-      <c r="E29" s="62">
+      <c r="E29" s="44">
         <f t="shared" ref="E29:G29" si="4">SUM(E22:E28)</f>
         <v>249</v>
       </c>
-      <c r="F29" s="62">
+      <c r="F29" s="44">
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
-      <c r="G29" s="62">
+      <c r="G29" s="44">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="H29" s="57"/>
+      <c r="H29" s="39"/>
     </row>
     <row r="30" spans="2:8" ht="18" customHeight="1">
-      <c r="B30" s="60"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="57"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="39"/>
     </row>
     <row r="31" spans="2:8" ht="18" customHeight="1">
-      <c r="B31" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79" t="s">
+      <c r="B31" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="79" t="s">
+      <c r="F31" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="F31" s="79" t="s">
-        <v>211</v>
-      </c>
-      <c r="G31" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="H31" s="80" t="s">
-        <v>233</v>
+      <c r="G31" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="H31" s="62" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="18" customHeight="1">
-      <c r="B32" s="60"/>
-      <c r="C32" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="62">
+      <c r="B32" s="42"/>
+      <c r="C32" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="44">
         <v>1</v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="44">
         <v>1</v>
       </c>
-      <c r="F32" s="62">
+      <c r="F32" s="44">
         <f>AVERAGE(D32,E32)</f>
         <v>1</v>
       </c>
-      <c r="G32" s="61">
+      <c r="G32" s="43">
         <f>(F32/$F$38)*100</f>
         <v>1.3071895424836601</v>
       </c>
-      <c r="H32" s="87">
+      <c r="H32" s="69">
         <f>E32/E22</f>
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18" customHeight="1">
-      <c r="B33" s="60"/>
-      <c r="C33" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="D33" s="62">
+      <c r="B33" s="42"/>
+      <c r="C33" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="44">
         <v>5</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="44">
         <v>5</v>
       </c>
-      <c r="F33" s="62">
+      <c r="F33" s="44">
         <f t="shared" ref="F33:F37" si="5">AVERAGE(D33,E33)</f>
         <v>5</v>
       </c>
-      <c r="G33" s="61">
+      <c r="G33" s="43">
         <f t="shared" ref="G33:G37" si="6">(F33/$F$38)*100</f>
         <v>6.5359477124183014</v>
       </c>
-      <c r="H33" s="87">
+      <c r="H33" s="69">
         <f t="shared" ref="H33:H37" si="7">E33/E23</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1">
-      <c r="B34" s="60"/>
-      <c r="C34" s="66" t="s">
-        <v>219</v>
-      </c>
-      <c r="D34" s="62">
+      <c r="B34" s="42"/>
+      <c r="C34" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="44">
         <v>29</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="44">
         <v>62</v>
       </c>
-      <c r="F34" s="62">
+      <c r="F34" s="44">
         <f t="shared" si="5"/>
         <v>45.5</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="43">
         <f t="shared" si="6"/>
         <v>59.477124183006538</v>
       </c>
-      <c r="H34" s="87">
+      <c r="H34" s="69">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1">
-      <c r="B35" s="60"/>
-      <c r="C35" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="D35" s="62">
+      <c r="B35" s="42"/>
+      <c r="C35" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="44">
         <v>9</v>
       </c>
-      <c r="E35" s="62">
+      <c r="E35" s="44">
         <v>14</v>
       </c>
-      <c r="F35" s="62">
+      <c r="F35" s="44">
         <f t="shared" si="5"/>
         <v>11.5</v>
       </c>
-      <c r="G35" s="61">
+      <c r="G35" s="43">
         <f t="shared" si="6"/>
         <v>15.032679738562091</v>
       </c>
-      <c r="H35" s="87">
+      <c r="H35" s="69">
         <f t="shared" si="7"/>
         <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1">
-      <c r="B36" s="60"/>
-      <c r="C36" s="66" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="62">
+      <c r="B36" s="42"/>
+      <c r="C36" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="44">
         <v>3</v>
       </c>
-      <c r="E36" s="62">
+      <c r="E36" s="44">
         <v>6</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F36" s="44">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="G36" s="61">
+      <c r="G36" s="43">
         <f t="shared" si="6"/>
         <v>5.8823529411764701</v>
       </c>
-      <c r="H36" s="87">
+      <c r="H36" s="69">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1">
-      <c r="B37" s="60"/>
-      <c r="C37" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="D37" s="62">
+      <c r="B37" s="42"/>
+      <c r="C37" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="44">
         <v>6</v>
       </c>
-      <c r="E37" s="62">
+      <c r="E37" s="44">
         <v>12</v>
       </c>
-      <c r="F37" s="62">
+      <c r="F37" s="44">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="G37" s="61">
+      <c r="G37" s="43">
         <f t="shared" si="6"/>
         <v>11.76470588235294</v>
       </c>
-      <c r="H37" s="87">
+      <c r="H37" s="69">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1">
-      <c r="B38" s="60"/>
-      <c r="C38" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="D38" s="62">
+      <c r="B38" s="42"/>
+      <c r="C38" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="44">
         <f>SUM(D32:D37)</f>
         <v>53</v>
       </c>
-      <c r="E38" s="62">
+      <c r="E38" s="44">
         <f t="shared" ref="E38:H38" si="8">SUM(E32:E37)</f>
         <v>100</v>
       </c>
-      <c r="F38" s="62">
+      <c r="F38" s="44">
         <f t="shared" si="8"/>
         <v>76.5</v>
       </c>
-      <c r="G38" s="62">
+      <c r="G38" s="44">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="H38" s="91">
+      <c r="H38" s="73">
         <f t="shared" si="8"/>
         <v>2.3940710190710193</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="18" customHeight="1">
-      <c r="B39" s="81" t="s">
-        <v>228</v>
-      </c>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83" t="s">
+      <c r="B39" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="83" t="s">
+      <c r="F39" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="G39" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="H39" s="84" t="s">
-        <v>233</v>
+      <c r="G39" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="H39" s="66" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="18" customHeight="1">
-      <c r="B40" s="60"/>
-      <c r="C40" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="D40" s="62">
+      <c r="B40" s="42"/>
+      <c r="C40" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="44">
         <v>1</v>
       </c>
-      <c r="E40" s="62">
+      <c r="E40" s="44">
         <v>1</v>
       </c>
-      <c r="F40" s="62">
+      <c r="F40" s="44">
         <f>AVERAGE(D40,E40)</f>
         <v>1</v>
       </c>
-      <c r="G40" s="61">
+      <c r="G40" s="43">
         <f>(F40/$F$46)*100</f>
         <v>3.225806451612903</v>
       </c>
-      <c r="H40" s="92">
+      <c r="H40" s="74">
         <f>E40/E22</f>
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1">
-      <c r="B41" s="60"/>
-      <c r="C41" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="D41" s="62">
+      <c r="B41" s="42"/>
+      <c r="C41" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="44">
         <v>5</v>
       </c>
-      <c r="E41" s="62">
+      <c r="E41" s="44">
         <v>3</v>
       </c>
-      <c r="F41" s="62">
-        <f t="shared" ref="F41:F46" si="9">AVERAGE(D41,E41)</f>
+      <c r="F41" s="44">
+        <f t="shared" ref="F41:F45" si="9">AVERAGE(D41,E41)</f>
         <v>4</v>
       </c>
-      <c r="G41" s="61">
-        <f t="shared" ref="G41:H46" si="10">(F41/$F$46)*100</f>
+      <c r="G41" s="43">
+        <f t="shared" ref="G41:G45" si="10">(F41/$F$46)*100</f>
         <v>12.903225806451612</v>
       </c>
-      <c r="H41" s="92">
+      <c r="H41" s="74">
         <f t="shared" ref="H41:H45" si="11">E41/E23</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="18" customHeight="1">
-      <c r="B42" s="60"/>
-      <c r="C42" s="66" t="s">
-        <v>219</v>
-      </c>
-      <c r="D42" s="62">
+      <c r="B42" s="42"/>
+      <c r="C42" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="44">
         <v>12</v>
       </c>
-      <c r="E42" s="62">
+      <c r="E42" s="44">
         <v>10</v>
       </c>
-      <c r="F42" s="62">
+      <c r="F42" s="44">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="G42" s="61">
+      <c r="G42" s="43">
         <f t="shared" si="10"/>
         <v>35.483870967741936</v>
       </c>
-      <c r="H42" s="92">
+      <c r="H42" s="74">
         <f t="shared" si="11"/>
         <v>0.10752688172043011</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="18" customHeight="1">
-      <c r="B43" s="60"/>
-      <c r="C43" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="D43" s="62">
+      <c r="B43" s="42"/>
+      <c r="C43" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" s="44">
         <v>10</v>
       </c>
-      <c r="E43" s="62">
+      <c r="E43" s="44">
         <v>6</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="44">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="G43" s="61">
+      <c r="G43" s="43">
         <f t="shared" si="10"/>
         <v>25.806451612903224</v>
       </c>
-      <c r="H43" s="92">
+      <c r="H43" s="74">
         <f t="shared" si="11"/>
         <v>0.16216216216216217</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="18" customHeight="1">
-      <c r="B44" s="60"/>
-      <c r="C44" s="66" t="s">
-        <v>227</v>
-      </c>
-      <c r="D44" s="62">
+      <c r="B44" s="42"/>
+      <c r="C44" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="D44" s="44">
         <v>3</v>
       </c>
-      <c r="E44" s="62">
+      <c r="E44" s="44">
         <v>3</v>
       </c>
-      <c r="F44" s="62">
+      <c r="F44" s="44">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="G44" s="61">
+      <c r="G44" s="43">
         <f t="shared" si="10"/>
         <v>9.67741935483871</v>
       </c>
-      <c r="H44" s="92">
+      <c r="H44" s="74">
         <f t="shared" si="11"/>
         <v>0.21428571428571427</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="18" customHeight="1">
-      <c r="B45" s="60"/>
-      <c r="C45" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="D45" s="62">
+      <c r="B45" s="42"/>
+      <c r="C45" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" s="44">
         <v>4</v>
       </c>
-      <c r="E45" s="62">
+      <c r="E45" s="44">
         <v>4</v>
       </c>
-      <c r="F45" s="62">
+      <c r="F45" s="44">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="G45" s="61">
+      <c r="G45" s="43">
         <f t="shared" si="10"/>
         <v>12.903225806451612</v>
       </c>
-      <c r="H45" s="92">
+      <c r="H45" s="74">
         <f t="shared" si="11"/>
         <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="18" customHeight="1">
-      <c r="B46" s="63"/>
-      <c r="C46" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="D46" s="64">
+      <c r="B46" s="45"/>
+      <c r="C46" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="46">
         <f>SUM(D40:D45)</f>
         <v>35</v>
       </c>
-      <c r="E46" s="64">
+      <c r="E46" s="46">
         <f t="shared" ref="E46:H46" si="12">SUM(E40:E45)</f>
         <v>27</v>
       </c>
-      <c r="F46" s="64">
+      <c r="F46" s="46">
         <f t="shared" si="12"/>
         <v>31</v>
       </c>
-      <c r="G46" s="64">
+      <c r="G46" s="46">
         <f t="shared" si="12"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="H46" s="93">
+      <c r="H46" s="75">
         <f t="shared" si="12"/>
         <v>0.87665152584507422</v>
       </c>

--- a/02_Proyecto/07.InformeGeneral/Cuadernos/06_Resumen_Plan_Proyecto.xlsx
+++ b/02_Proyecto/07.InformeGeneral/Cuadernos/06_Resumen_Plan_Proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ordenador\Documents\GitHub\2563_G5_ACSW\02_Proyecto\07.InformeGeneral\Cuadernos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Kevin\2025_Septimo\Aseguramiento calidad - 2563\GIT\2563_G5_ACSW\02_Proyecto\07.InformeGeneral\Cuadernos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C743159-F358-4243-A61C-019BD07E7D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C205F83-05EC-411E-976C-731A3FBFC224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{4A5921DE-74FD-453F-A450-9A213226377B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="5" xr2:uid="{4A5921DE-74FD-453F-A450-9A213226377B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla 6,1" sheetId="15" r:id="rId1"/>
@@ -1214,7 +1214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1336,10 +1336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1351,14 +1348,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1377,7 +1374,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,9 +1402,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1416,7 +1410,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1425,6 +1419,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1478,9 +1475,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1823,71 +1817,71 @@
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="14.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="4" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="2:7" ht="15.6">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="2:7" ht="14.4" customHeight="1">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>139</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="84" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="78"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="85"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="84"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="78"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="84"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="20" t="s">
         <v>146</v>
       </c>
@@ -2029,7 +2023,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="27.6">
+    <row r="23" spans="2:6" ht="28.8">
       <c r="C23" s="32" t="s">
         <v>190</v>
       </c>
@@ -2157,7 +2151,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="27.6">
+    <row r="34" spans="3:6" ht="28.8">
       <c r="C34" s="34" t="s">
         <v>190</v>
       </c>
@@ -2303,11 +2297,11 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="14.59765625" customWidth="1"/>
+    <col min="4" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2317,62 +2311,62 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="15.6">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>139</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="84" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="78"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="85"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="84"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="78"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="84"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="20" t="s">
         <v>146</v>
       </c>
@@ -2420,7 +2414,7 @@
         <v>43</v>
       </c>
       <c r="F12" s="23">
-        <f t="shared" ref="F12:F47" si="0">D12/E12</f>
+        <f t="shared" ref="F12:F46" si="0">D12/E12</f>
         <v>1.8604651162790697</v>
       </c>
     </row>
@@ -2955,7 +2949,7 @@
       <c r="C48" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="94">
+      <c r="D48" s="74">
         <f>D47/C46</f>
         <v>120.69444444444444</v>
       </c>
@@ -2991,70 +2985,70 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="5" width="16.296875" customWidth="1"/>
-    <col min="6" max="6" width="30.69921875" style="12" customWidth="1"/>
+    <col min="2" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="12" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="2:7" ht="15.6">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="84" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="85"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="84"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="78"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="84"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="24" t="s">
         <v>146</v>
       </c>
@@ -3880,72 +3874,72 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="21.59765625" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" customWidth="1"/>
-    <col min="4" max="4" width="24.296875" customWidth="1"/>
-    <col min="5" max="5" width="27.8984375" customWidth="1"/>
-    <col min="6" max="8" width="13.59765625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="6" max="8" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="2:8" ht="15.6">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="84" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="85"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="84"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="78"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="84"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="20" t="s">
         <v>146</v>
       </c>
@@ -5142,33 +5136,33 @@
     </row>
     <row r="59" spans="2:8" ht="28.2" customHeight="1"/>
     <row r="60" spans="2:8" ht="14.4" customHeight="1">
-      <c r="E60" s="67" t="s">
+      <c r="E60" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="68">
+      <c r="F60" s="43">
         <f>F58/60</f>
         <v>57.93333333333333</v>
       </c>
-      <c r="G60" s="68">
+      <c r="G60" s="43">
         <f t="shared" ref="G60:H60" si="2">G58/60</f>
         <v>72.416666666666671</v>
       </c>
-      <c r="H60" s="68">
+      <c r="H60" s="43">
         <f t="shared" si="2"/>
         <v>86.9</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="E61" s="8"/>
-      <c r="F61" s="68">
+      <c r="F61" s="43">
         <f>C58/F60</f>
         <v>36.283084004602991</v>
       </c>
-      <c r="G61" s="68">
+      <c r="G61" s="43">
         <f>C58/G60</f>
         <v>29.02646720368239</v>
       </c>
-      <c r="H61" s="68">
+      <c r="H61" s="43">
         <f>C58/H60</f>
         <v>24.188722669735327</v>
       </c>
@@ -5180,10 +5174,10 @@
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="E63" s="67" t="s">
+      <c r="E63" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="F63" s="68">
+      <c r="F63" s="43">
         <f>H58/C58</f>
         <v>2.4804947668886776</v>
       </c>
@@ -5191,10 +5185,10 @@
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="E64" s="67" t="s">
+      <c r="E64" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="F64" s="68">
+      <c r="F64" s="43">
         <f>G58/C58</f>
         <v>2.0670789724072312</v>
       </c>
@@ -5202,69 +5196,69 @@
       <c r="H64" s="8"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="87" t="s">
+      <c r="B68" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="C68" s="87"/>
-      <c r="D68" s="87"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="H68" s="87"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="87"/>
-      <c r="C69" s="87"/>
-      <c r="D69" s="87"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="H69" s="87"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="87"/>
-      <c r="C70" s="87"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="H70" s="87"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="86"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="87"/>
-      <c r="C72" s="87"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
-      <c r="H72" s="87"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="86"/>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="87"/>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="86"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="87"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="87"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5286,75 +5280,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F010656-C806-4C2C-82C5-54BF16B80081}">
   <dimension ref="B2:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="4" width="20.09765625" customWidth="1"/>
-    <col min="5" max="5" width="27.19921875" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.09765625" customWidth="1"/>
+    <col min="2" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="2:10" ht="15.6">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="84" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="23.4" customHeight="1">
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="85"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="84"/>
     </row>
     <row r="6" spans="2:10" ht="23.4" customHeight="1">
-      <c r="B6" s="78"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="84"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="20" t="s">
         <v>146</v>
       </c>
@@ -5964,75 +5958,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C7CB2A-E93A-4CBB-974B-0ECB471C7048}">
   <dimension ref="B2:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="4" width="20.09765625" customWidth="1"/>
-    <col min="5" max="5" width="40.796875" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.09765625" customWidth="1"/>
+    <col min="2" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="40.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="2:10" ht="15.6">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="84" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="23.4" customHeight="1">
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="85"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="84"/>
     </row>
     <row r="6" spans="2:10" ht="23.4" customHeight="1">
-      <c r="B6" s="78"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="84"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="20" t="s">
         <v>146</v>
       </c>
@@ -6685,11 +6679,11 @@
     </row>
     <row r="54" spans="3:6">
       <c r="C54" s="9"/>
-      <c r="D54" s="91" t="s">
+      <c r="D54" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6711,19 +6705,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD6D85A-ECBF-4724-AA0D-58449E80544B}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.09765625" customWidth="1"/>
-    <col min="3" max="4" width="20.09765625" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.796875" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.09765625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6732,22 +6726,22 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="91" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="36" t="s">
         <v>202</v>
       </c>
@@ -6756,52 +6750,52 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>139</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="84" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23.4" customHeight="1">
-      <c r="B6" s="78"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="85"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="84"/>
     </row>
     <row r="7" spans="1:8" ht="23.4" customHeight="1">
-      <c r="B7" s="78"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="84"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="20" t="s">
         <v>146</v>
       </c>
@@ -6811,25 +6805,25 @@
     </row>
     <row r="8" spans="1:8" ht="23.4" customHeight="1"/>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="70"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="68"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="B10" s="42"/>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="43">
@@ -6844,12 +6838,12 @@
         <f>AVERAGE(E10,D10)</f>
         <v>2.2737868696479544</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1">
       <c r="B11" s="42"/>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>204</v>
       </c>
       <c r="D11" s="43">
@@ -6864,16 +6858,17 @@
         <f t="shared" ref="F11:F12" si="0">AVERAGE(E11,D11)</f>
         <v>26.60759493670886</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1">
       <c r="B12" s="42"/>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="44">
-        <v>94.79</v>
+      <c r="D12" s="8">
+        <f>'Defectos Desarrollo 1'!C46</f>
+        <v>524</v>
       </c>
       <c r="E12" s="43">
         <f>1000*'Defectos Desarrollo 1_2'!C46/'Defectos Desarrollo 1_2'!D46</f>
@@ -6881,47 +6876,47 @@
       </c>
       <c r="F12" s="43">
         <f t="shared" si="0"/>
-        <v>120.18282112274025</v>
-      </c>
-      <c r="G12" s="44"/>
+        <v>334.78782112274024</v>
+      </c>
+      <c r="G12" s="8"/>
       <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1">
       <c r="B13" s="42"/>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1">
       <c r="B14" s="42"/>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="71"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1">
       <c r="B16" s="40"/>
-      <c r="C16" s="47"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
@@ -6930,104 +6925,104 @@
     </row>
     <row r="17" spans="2:8" ht="18" customHeight="1">
       <c r="B17" s="42"/>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="8">
         <f>'Defectos Desarrollo 1'!D46</f>
         <v>2318</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="8">
         <f>'Defectos Desarrollo 1_2'!D46</f>
         <v>2102</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="8">
         <f>AVERAGE(D17,E17)</f>
         <v>2210</v>
       </c>
-      <c r="G17" s="44"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="39"/>
     </row>
     <row r="18" spans="2:8" ht="18" customHeight="1">
       <c r="B18" s="42"/>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="8">
         <f>D17+(D17*0.1)</f>
         <v>2549.8000000000002</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="8">
         <f>E17+(E17*0.2)</f>
         <v>2522.4</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="8">
         <f t="shared" ref="F18:F19" si="1">AVERAGE(D18,E18)</f>
         <v>2536.1000000000004</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="39"/>
     </row>
     <row r="19" spans="2:8" ht="18" customHeight="1">
       <c r="B19" s="42"/>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="8">
         <f>D17-(D17*0.1)</f>
         <v>2086.1999999999998</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="8">
         <f>E17-(E17*0.2)</f>
         <v>1681.6</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="8">
         <f t="shared" si="1"/>
         <v>1883.8999999999999</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="39"/>
     </row>
     <row r="20" spans="2:8" ht="18" customHeight="1">
-      <c r="B20" s="45"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="39"/>
     </row>
     <row r="21" spans="2:8" ht="18" customHeight="1">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="H21" s="72"/>
+      <c r="H21" s="70"/>
     </row>
     <row r="22" spans="2:8" ht="18" customHeight="1">
       <c r="B22" s="40"/>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="8">
         <v>10</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="8">
         <v>22</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="8">
         <f>AVERAGE(D22,E22)</f>
         <v>16</v>
       </c>
@@ -7039,16 +7034,16 @@
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1">
       <c r="B23" s="42"/>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="8">
         <v>35</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="8">
         <v>24</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="8">
         <f t="shared" ref="F23:F28" si="2">AVERAGE(D23,E23)</f>
         <v>29.5</v>
       </c>
@@ -7060,16 +7055,16 @@
     </row>
     <row r="24" spans="2:8" ht="18" customHeight="1">
       <c r="B24" s="42"/>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="8">
         <v>149</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="8">
         <v>93</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="8">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
@@ -7081,16 +7076,16 @@
     </row>
     <row r="25" spans="2:8" ht="18" customHeight="1">
       <c r="B25" s="42"/>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="8">
         <v>20</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="8">
         <v>37</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="8">
         <f t="shared" si="2"/>
         <v>28.5</v>
       </c>
@@ -7102,16 +7097,16 @@
     </row>
     <row r="26" spans="2:8" ht="18" customHeight="1">
       <c r="B26" s="42"/>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="8">
         <v>24</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="8">
         <v>14</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="8">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -7123,16 +7118,16 @@
     </row>
     <row r="27" spans="2:8" ht="18" customHeight="1">
       <c r="B27" s="42"/>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="8">
         <v>64</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="8">
         <v>18</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="8">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
@@ -7144,16 +7139,16 @@
     </row>
     <row r="28" spans="2:8" ht="18" customHeight="1">
       <c r="B28" s="42"/>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="8">
         <v>33</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="8">
         <v>41</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="8">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
@@ -7165,22 +7160,22 @@
     </row>
     <row r="29" spans="2:8" ht="18" customHeight="1">
       <c r="B29" s="42"/>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="8">
         <f>SUM(D22:D28)</f>
         <v>335</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="8">
         <f t="shared" ref="E29:G29" si="4">SUM(E22:E28)</f>
         <v>249</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="8">
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="8">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
@@ -7188,46 +7183,46 @@
     </row>
     <row r="30" spans="2:8" ht="18" customHeight="1">
       <c r="B30" s="42"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="39"/>
     </row>
     <row r="31" spans="2:8" ht="18" customHeight="1">
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="61" t="s">
+      <c r="C31" s="59"/>
+      <c r="D31" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="G31" s="61" t="s">
+      <c r="G31" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H31" s="62" t="s">
+      <c r="H31" s="61" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="18" customHeight="1">
       <c r="B32" s="42"/>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="8">
         <v>1</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="8">
         <f>AVERAGE(D32,E32)</f>
         <v>1</v>
       </c>
@@ -7235,23 +7230,23 @@
         <f>(F32/$F$38)*100</f>
         <v>1.3071895424836601</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="67">
         <f>E32/E22</f>
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="18" customHeight="1">
       <c r="B33" s="42"/>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="8">
         <v>5</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="8">
         <v>5</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="8">
         <f t="shared" ref="F33:F37" si="5">AVERAGE(D33,E33)</f>
         <v>5</v>
       </c>
@@ -7259,23 +7254,23 @@
         <f t="shared" ref="G33:G37" si="6">(F33/$F$38)*100</f>
         <v>6.5359477124183014</v>
       </c>
-      <c r="H33" s="69">
+      <c r="H33" s="67">
         <f t="shared" ref="H33:H37" si="7">E33/E23</f>
         <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1">
       <c r="B34" s="42"/>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="8">
         <v>29</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="8">
         <v>62</v>
       </c>
-      <c r="F34" s="44">
+      <c r="F34" s="8">
         <f t="shared" si="5"/>
         <v>45.5</v>
       </c>
@@ -7283,23 +7278,23 @@
         <f t="shared" si="6"/>
         <v>59.477124183006538</v>
       </c>
-      <c r="H34" s="69">
+      <c r="H34" s="67">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1">
       <c r="B35" s="42"/>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="D35" s="44">
+      <c r="D35" s="8">
         <v>9</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="8">
         <v>14</v>
       </c>
-      <c r="F35" s="44">
+      <c r="F35" s="8">
         <f t="shared" si="5"/>
         <v>11.5</v>
       </c>
@@ -7307,23 +7302,23 @@
         <f t="shared" si="6"/>
         <v>15.032679738562091</v>
       </c>
-      <c r="H35" s="69">
+      <c r="H35" s="67">
         <f t="shared" si="7"/>
         <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1">
       <c r="B36" s="42"/>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D36" s="44">
+      <c r="D36" s="8">
         <v>3</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E36" s="8">
         <v>6</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="8">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
@@ -7331,23 +7326,23 @@
         <f t="shared" si="6"/>
         <v>5.8823529411764701</v>
       </c>
-      <c r="H36" s="69">
+      <c r="H36" s="67">
         <f t="shared" si="7"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1">
       <c r="B37" s="42"/>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="D37" s="44">
+      <c r="D37" s="8">
         <v>6</v>
       </c>
-      <c r="E37" s="44">
+      <c r="E37" s="8">
         <v>12</v>
       </c>
-      <c r="F37" s="44">
+      <c r="F37" s="8">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -7355,70 +7350,70 @@
         <f t="shared" si="6"/>
         <v>11.76470588235294</v>
       </c>
-      <c r="H37" s="69">
+      <c r="H37" s="67">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1">
       <c r="B38" s="42"/>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D38" s="44">
+      <c r="D38" s="8">
         <f>SUM(D32:D37)</f>
         <v>53</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="8">
         <f t="shared" ref="E38:H38" si="8">SUM(E32:E37)</f>
         <v>100</v>
       </c>
-      <c r="F38" s="44">
+      <c r="F38" s="8">
         <f t="shared" si="8"/>
         <v>76.5</v>
       </c>
-      <c r="G38" s="44">
+      <c r="G38" s="8">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="H38" s="73">
+      <c r="H38" s="71">
         <f t="shared" si="8"/>
         <v>2.3940710190710193</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="18" customHeight="1">
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65" t="s">
+      <c r="C39" s="63"/>
+      <c r="D39" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="E39" s="65" t="s">
+      <c r="E39" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="F39" s="65" t="s">
+      <c r="F39" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="G39" s="65" t="s">
+      <c r="G39" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="H39" s="66" t="s">
+      <c r="H39" s="65" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="18" customHeight="1">
       <c r="B40" s="42"/>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" s="44">
+      <c r="E40" s="8">
         <v>1</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="8">
         <f>AVERAGE(D40,E40)</f>
         <v>1</v>
       </c>
@@ -7426,23 +7421,23 @@
         <f>(F40/$F$46)*100</f>
         <v>3.225806451612903</v>
       </c>
-      <c r="H40" s="74">
+      <c r="H40" s="72">
         <f>E40/E22</f>
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1">
       <c r="B41" s="42"/>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="D41" s="44">
+      <c r="D41" s="8">
         <v>5</v>
       </c>
-      <c r="E41" s="44">
+      <c r="E41" s="8">
         <v>3</v>
       </c>
-      <c r="F41" s="44">
+      <c r="F41" s="8">
         <f t="shared" ref="F41:F45" si="9">AVERAGE(D41,E41)</f>
         <v>4</v>
       </c>
@@ -7450,23 +7445,23 @@
         <f t="shared" ref="G41:G45" si="10">(F41/$F$46)*100</f>
         <v>12.903225806451612</v>
       </c>
-      <c r="H41" s="74">
+      <c r="H41" s="72">
         <f t="shared" ref="H41:H45" si="11">E41/E23</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="18" customHeight="1">
       <c r="B42" s="42"/>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D42" s="8">
         <v>12</v>
       </c>
-      <c r="E42" s="44">
+      <c r="E42" s="8">
         <v>10</v>
       </c>
-      <c r="F42" s="44">
+      <c r="F42" s="8">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
@@ -7474,23 +7469,23 @@
         <f t="shared" si="10"/>
         <v>35.483870967741936</v>
       </c>
-      <c r="H42" s="74">
+      <c r="H42" s="72">
         <f t="shared" si="11"/>
         <v>0.10752688172043011</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="18" customHeight="1">
       <c r="B43" s="42"/>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="D43" s="44">
+      <c r="D43" s="8">
         <v>10</v>
       </c>
-      <c r="E43" s="44">
+      <c r="E43" s="8">
         <v>6</v>
       </c>
-      <c r="F43" s="44">
+      <c r="F43" s="8">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
@@ -7498,23 +7493,23 @@
         <f t="shared" si="10"/>
         <v>25.806451612903224</v>
       </c>
-      <c r="H43" s="74">
+      <c r="H43" s="72">
         <f t="shared" si="11"/>
         <v>0.16216216216216217</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="18" customHeight="1">
       <c r="B44" s="42"/>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="D44" s="44">
+      <c r="D44" s="8">
         <v>3</v>
       </c>
-      <c r="E44" s="44">
+      <c r="E44" s="8">
         <v>3</v>
       </c>
-      <c r="F44" s="44">
+      <c r="F44" s="8">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
@@ -7522,23 +7517,23 @@
         <f t="shared" si="10"/>
         <v>9.67741935483871</v>
       </c>
-      <c r="H44" s="74">
+      <c r="H44" s="72">
         <f t="shared" si="11"/>
         <v>0.21428571428571427</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="18" customHeight="1">
       <c r="B45" s="42"/>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="D45" s="44">
+      <c r="D45" s="8">
         <v>4</v>
       </c>
-      <c r="E45" s="44">
+      <c r="E45" s="8">
         <v>4</v>
       </c>
-      <c r="F45" s="44">
+      <c r="F45" s="8">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
@@ -7546,33 +7541,33 @@
         <f t="shared" si="10"/>
         <v>12.903225806451612</v>
       </c>
-      <c r="H45" s="74">
+      <c r="H45" s="72">
         <f t="shared" si="11"/>
         <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="18" customHeight="1">
-      <c r="B46" s="45"/>
-      <c r="C46" s="49" t="s">
+      <c r="B46" s="44"/>
+      <c r="C46" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="D46" s="46">
+      <c r="D46" s="45">
         <f>SUM(D40:D45)</f>
         <v>35</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="45">
         <f t="shared" ref="E46:H46" si="12">SUM(E40:E45)</f>
         <v>27</v>
       </c>
-      <c r="F46" s="46">
+      <c r="F46" s="45">
         <f t="shared" si="12"/>
         <v>31</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="45">
         <f t="shared" si="12"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="H46" s="75">
+      <c r="H46" s="73">
         <f t="shared" si="12"/>
         <v>0.87665152584507422</v>
       </c>
